--- a/data/case1/9/P1_6.xlsx
+++ b/data/case1/9/P1_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.217281253129741</v>
+        <v>0.26762998866126964</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999999044015908</v>
+        <v>-0.0099999998446342886</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999999040806244</v>
+        <v>-0.0089999998430467798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.061998666996746721</v>
+        <v>0.061997998877032501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999999071802534</v>
+        <v>-0.0059999998472877181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999999053452768</v>
+        <v>-0.0059999998430093626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999884934283</v>
+        <v>-0.019999999809321878</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999884277919</v>
+        <v>-0.01999999980782885</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999999038433671</v>
+        <v>-0.0059999998395410259</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999999034658913</v>
+        <v>-0.0059999998383233333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999999055832518</v>
+        <v>-0.0044999998418511211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999999034539009</v>
+        <v>-0.0059999998380924069</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.005999999903479214</v>
+        <v>-0.0059999998373703178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.03407648261162155</v>
+        <v>0.020494951472663558</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999999032029905</v>
+        <v>-0.0059999998366215834</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999999028605977</v>
+        <v>-0.0059999998360180662</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999999024178408</v>
+        <v>-0.0059999998352546768</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999998979930496</v>
+        <v>-0.0089999998279477467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999999058707481</v>
+        <v>-0.0089999998468717202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999999049812374</v>
+        <v>-0.0089999998454235453</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999999048462342</v>
+        <v>-0.0089999998451952834</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999999047343238</v>
+        <v>-0.0089999998450052132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.033145136528100139</v>
+        <v>-0.048459575449909309</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999853872261</v>
+        <v>-0.041999999760057527</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999853035597</v>
+        <v>-0.041999999758678186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999999053026443</v>
+        <v>-0.0059999998427002765</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999999050939223</v>
+        <v>-0.0059999998423077017</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999999046738139</v>
+        <v>-0.0059999998407525013</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.051541265048482998</v>
+        <v>0.03325763008875704</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999883630437</v>
+        <v>-0.019999999805444535</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999889807825</v>
+        <v>-0.014999999815573872</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999881025744</v>
+        <v>-0.020999999801046165</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999999025173167</v>
+        <v>-0.0059999998364794749</v>
       </c>
     </row>
   </sheetData>
